--- a/uploads/claimFile/file-1710429240498.xlsx
+++ b/uploads/claimFile/file-1710429240498.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Contract</t>
+    <t xml:space="preserve">Contract#</t>
   </si>
   <si>
     <t xml:space="preserve">Servicer Name</t>
@@ -60,7 +60,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -80,12 +80,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
     </font>
@@ -132,7 +126,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -142,10 +136,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,10 +159,10 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
   </cols>
@@ -222,7 +212,7 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
